--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="165">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -1081,6 +1081,45 @@
   </si>
   <si>
     <t>Cruise Overlap with different vessels: SE-15-01 Leg 1</t>
+  </si>
+  <si>
+    <t>Invalid Cruise Name</t>
+  </si>
+  <si>
+    <t>Mismatched Cruise Name and Fiscal Year</t>
+  </si>
+  <si>
+    <t>Missing Leg Gear</t>
+  </si>
+  <si>
+    <t>OES0607</t>
+  </si>
+  <si>
+    <t>INV_CRUISE_NAME_YN</t>
+  </si>
+  <si>
+    <t>TC-03-07</t>
+  </si>
+  <si>
+    <t>INV_CRUISE_NAME_FY_YN</t>
+  </si>
+  <si>
+    <t>MISS_GEAR_YN</t>
+  </si>
+  <si>
+    <t>HA1101_LEG_II</t>
+  </si>
+  <si>
+    <t>RL-17-05 Leg 4</t>
+  </si>
+  <si>
+    <t>RL-17-05 Leg 6</t>
+  </si>
+  <si>
+    <t>MISS_PRIM_SVY_CAT_YN</t>
+  </si>
+  <si>
+    <t>Missing Cruise Primary Survey Category</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1327,20 +1366,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1357,15 +1389,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1378,8 +1404,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1689,22 +1731,23 @@
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="45.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.6796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.58984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="73" style="2" customWidth="1"/>
-    <col min="6" max="6" width="64.85546875" customWidth="1"/>
-    <col min="7" max="7" width="64.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="64.86328125" customWidth="1"/>
+    <col min="7" max="7" width="64.7265625" customWidth="1"/>
+    <col min="8" max="8" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -1721,722 +1764,842 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="B3" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D3" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E3" s="44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="4" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B4" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C4" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B5" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C5" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D5" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    </row>
+    <row r="6" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A6" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="B7" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D7" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E7" s="44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="8" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A8" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="B9" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D9" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="32"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+    </row>
+    <row r="10" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B10" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C10" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D10" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+    </row>
+    <row r="11" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A11" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A13" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A14" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C14" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D14" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+    </row>
+    <row r="15" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A15" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B15" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C15" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D15" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E15" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="16" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B16" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C16" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D16" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E16" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="17" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A17" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B17" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C17" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D17" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E17" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+    <row r="18" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A18" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A19" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B19" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C19" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D19" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+    </row>
+    <row r="20" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A20" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A21" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C21" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D21" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    </row>
+    <row r="22" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B22" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C22" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E22" s="44" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="23" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A23" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B23" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C23" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D23" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    </row>
+    <row r="24" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A24" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B24" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C24" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D24" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    </row>
+    <row r="25" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A25" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C27" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D27" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E27" s="44" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+    <row r="28" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A28" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A29" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B29" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C29" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D29" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E29" s="44" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
+    <row r="30" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A30" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A31" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C31" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D31" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+    </row>
+    <row r="32" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A32" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B32" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C32" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D32" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E32" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="33" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A33" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A34" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A35" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B35" s="45"/>
+      <c r="C35" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A36" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="B36" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D36" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    </row>
+    <row r="37" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A37" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B37" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C37" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D37" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E37" s="44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+    <row r="38" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A39" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A40" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A41" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B41" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C41" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D41" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E41" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+    <row r="42" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A42" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B42" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C42" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D42" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E42" s="44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="43" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A43" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B43" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C43" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D43" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+    </row>
+    <row r="44" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A44" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A45" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B45" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C45" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D45" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+    </row>
+    <row r="46" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A46" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A47" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A48" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C48" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D48" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E48" s="44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+    <row r="49" spans="1:4" s="44" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A49" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B49" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C49" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D49" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" s="3"/>
       <c r="B50" s="19"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" s="3"/>
       <c r="B51" s="19"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" s="3"/>
       <c r="B52" s="19"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" s="3"/>
       <c r="B53" s="19"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" s="3"/>
       <c r="B54" s="19"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" s="3"/>
       <c r="B55" s="19"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" s="3"/>
       <c r="B56" s="19"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" s="3"/>
       <c r="B57" s="19"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" s="3"/>
       <c r="B58" s="19"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" s="3"/>
       <c r="B59" s="19"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" s="3"/>
       <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" s="3"/>
       <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" s="3"/>
       <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" s="3"/>
       <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" s="3"/>
       <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A65" s="7"/>
       <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A66" s="8"/>
       <c r="B66" s="19"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A67" s="8"/>
       <c r="B67" s="19"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A68" s="3"/>
       <c r="B68" s="19"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A69" s="3"/>
       <c r="B69" s="19"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A70" s="3"/>
       <c r="B70" s="19"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A71" s="3"/>
       <c r="B71" s="19"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A72" s="3"/>
       <c r="B72" s="19"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A73" s="3"/>
       <c r="B73" s="19"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A74" s="3"/>
       <c r="B74" s="19"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A75" s="3"/>
       <c r="B75" s="19"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A76" s="3"/>
       <c r="B76" s="19"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A77" s="5" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2607,7 @@
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -2459,7 +2622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -2474,7 +2637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
         <v>33</v>
       </c>
@@ -2489,7 +2652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A81" s="3" t="s">
         <v>25</v>
       </c>
@@ -2504,7 +2667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A82" s="3" t="s">
         <v>26</v>
       </c>
@@ -2519,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A83" s="3" t="s">
         <v>16</v>
       </c>
@@ -2534,7 +2697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
@@ -2549,7 +2712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2564,7 +2727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A86" s="3" t="s">
         <v>27</v>
       </c>
@@ -2579,12 +2742,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A89" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A90" s="8" t="s">
         <v>10</v>
       </c>
@@ -2599,7 +2762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A91" s="8" t="s">
         <v>10</v>
       </c>
@@ -2610,12 +2773,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="73.75" x14ac:dyDescent="0.75">
       <c r="A94" s="8" t="s">
         <v>28</v>
       </c>
@@ -2629,7 +2792,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="88.5" x14ac:dyDescent="0.75">
       <c r="A95" s="3" t="s">
         <v>20</v>
       </c>
@@ -2643,12 +2806,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A97" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A99" s="3" t="s">
         <v>27</v>
       </c>
@@ -2677,7 +2840,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="191.75" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -2691,12 +2854,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A102" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A103" s="1" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
         <v>22</v>
       </c>
@@ -2725,7 +2888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
         <v>8</v>
       </c>
@@ -2739,7 +2902,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="147.5" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -2753,12 +2916,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A108" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A109" s="1" t="s">
         <v>2</v>
       </c>
@@ -2773,101 +2936,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A110" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B110" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C110" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="27"/>
-      <c r="E110" s="42" t="s">
+      <c r="E110" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A111" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B111" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="37"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="28"/>
-      <c r="E111" s="44"/>
-    </row>
-    <row r="112" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="31"/>
+    </row>
+    <row r="112" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A112" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B112" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="40" t="s">
+      <c r="C112" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="24"/>
-      <c r="E112" s="42" t="s">
+      <c r="E112" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="246.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="246.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A113" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B113" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="41"/>
+      <c r="C113" s="38"/>
       <c r="D113" s="25"/>
-      <c r="E113" s="43"/>
-    </row>
-    <row r="114" spans="1:5" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" spans="1:5" ht="282.75" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A114" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B114" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C114" s="40" t="s">
+      <c r="C114" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D114" s="24"/>
-      <c r="E114" s="42" t="s">
+      <c r="E114" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A115" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="41"/>
+      <c r="C115" s="38"/>
       <c r="D115" s="25"/>
-      <c r="E115" s="43"/>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E115" s="39"/>
+    </row>
+    <row r="116" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A116" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B116" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C116" s="48"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="26"/>
-      <c r="E116" s="44"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="31"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A118" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
@@ -2882,75 +3045,75 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="408" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="408" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A120" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="22"/>
-      <c r="E120" s="38" t="s">
+      <c r="E120" s="35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B121" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C121" s="46"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="23"/>
-      <c r="E121" s="47"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E121" s="42"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A122" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="46"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="23"/>
-      <c r="E122" s="47"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="42"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A123" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="27"/>
-      <c r="E123" s="38" t="s">
+      <c r="E123" s="35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="378" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="378" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A124" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="37"/>
+      <c r="C124" s="34"/>
       <c r="D124" s="28"/>
-      <c r="E124" s="39"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="36"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A126" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A127" s="2" t="s">
         <v>14</v>
       </c>
@@ -2964,7 +3127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A128" s="2" t="s">
         <v>23</v>
       </c>
@@ -2978,33 +3141,33 @@
         <v>81</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="331.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A129" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C129" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D129" s="29"/>
-      <c r="E129" s="42" t="s">
+      <c r="E129" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A130" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C130" s="49"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="29"/>
-      <c r="E130" s="44"/>
-    </row>
-    <row r="131" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E130" s="31"/>
+    </row>
+    <row r="131" spans="1:5" ht="103.25" x14ac:dyDescent="0.75">
       <c r="A131" s="2" t="s">
         <v>13</v>
       </c>
@@ -3018,7 +3181,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="133.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A132" s="2" t="s">
         <v>12</v>
       </c>
@@ -3032,33 +3195,33 @@
         <v>84</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="295.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>34</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C133" s="49" t="s">
+      <c r="C133" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D133" s="29"/>
-      <c r="E133" s="42" t="s">
+      <c r="E133" s="30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A134" t="s">
         <v>69</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C134" s="49"/>
+      <c r="C134" s="32"/>
       <c r="D134" s="29"/>
-      <c r="E134" s="44"/>
-    </row>
-    <row r="135" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E134" s="31"/>
+    </row>
+    <row r="135" spans="1:5" ht="132.75" x14ac:dyDescent="0.75">
       <c r="A135" s="2" t="s">
         <v>10</v>
       </c>
@@ -3077,12 +3240,6 @@
     <sortCondition ref="A2:A21"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="E123:E124"/>
     <mergeCell ref="C112:C113"/>
     <mergeCell ref="E112:E113"/>
     <mergeCell ref="C110:C111"/>
@@ -3091,6 +3248,12 @@
     <mergeCell ref="E120:E122"/>
     <mergeCell ref="C114:C116"/>
     <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="E123:E124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -688,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DVM Tests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -22,9 +22,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Error Type Name</t>
-  </si>
-  <si>
     <t>Warning Only</t>
   </si>
   <si>
@@ -266,12 +263,15 @@
   </si>
   <si>
     <t>Unusually High Leg Days at Sea</t>
+  </si>
+  <si>
+    <t>Issue Type Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,16 +705,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -722,713 +722,713 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="C25" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="C40" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="8"/>
     </row>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="DVM Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Category 2 DVM Tests" sheetId="3" r:id="rId2"/>
+    <sheet name="Category 3 DVM Tests" sheetId="2" r:id="rId3"/>
+    <sheet name="Category 4 DVM Tests" sheetId="4" r:id="rId4"/>
+    <sheet name="Category 5 DVM Tests" sheetId="5" r:id="rId5"/>
+    <sheet name="Category 6 DVM Tests" sheetId="6" r:id="rId6"/>
+    <sheet name="Category 6 DVM Rules" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="137">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -266,12 +272,238 @@
   </si>
   <si>
     <t>Issue Type Name</t>
+  </si>
+  <si>
+    <t>Data Stream</t>
+  </si>
+  <si>
+    <t>HI-04-01</t>
+  </si>
+  <si>
+    <t>HI-10-07</t>
+  </si>
+  <si>
+    <t>HI-10-09</t>
+  </si>
+  <si>
+    <t>Copied cruise with same vessel with overlapping dates: HI-10-09</t>
+  </si>
+  <si>
+    <t>Copied cruise with same vessel with overlapping dates: HI-10-07</t>
+  </si>
+  <si>
+    <t>SE-04-11</t>
+  </si>
+  <si>
+    <t>SE-05-09</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20201
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20201: The data stream code (TEST) was not found in the database: ORA-01403: no data found
+The parent record was NOT evaluated successfully
+completed test case for ORA-20201</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20202
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20202: The current data stream has a parent table (CCD_CRUISES_TEMP) that does not exist, this must be resolved before the DVM can execute successfully
+The parent record was NOT evaluated successfully
+completed test case for ORA-20202</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20203
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20203: The current data stream has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM, this must be resolved before the DVM can execute successfully
+The parent record was NOT evaluated successfully
+completed test case for ORA-20203</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20204
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20204: The associated parent table (CCD_CRUISES AND CCD_CRUISE_LEGS) and parent table's primary key field (CRUISE_ID AND CRUISE_LEG_ID) for the current and previous data stream codes (CCD_TEST AND CCD) are not the same, this indicates that the data stream codes are for different parent tables so this procedure call is invalid
+The parent record was NOT evaluated successfully
+completed test case for ORA-20204</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20206
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20206: The parent record (CCD_CRUISES) for the data stream code(s) (CCD) and parent record PK (-1) was not found in the database
+The parent record was NOT evaluated successfully
+completed test case for ORA-20206</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20210
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20210: there are more than one active validation rule set for the data stream code (CCD)
+The parent record was NOT evaluated successfully
+completed test case for ORA-20210</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20211
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20211: there are no active validation criteria for the data stream code (CCD)
+The parent record was NOT evaluated successfully
+completed test case for ORA-20211</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20220
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20220: The QC view (CCD_QC_CRUISE_TEMP_V) does not exist: ORA-00942: table or view does not exist
+The parent record was NOT evaluated successfully
+completed test case for ORA-20220</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20221
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20221: The QC view (CCD_QC_CRUISE_V) is invalid: ORA-04063: view "CEN_CRUISE.CCD_QC_CRUISE_V" has errors
+The parent record was NOT evaluated successfully
+completed test case for ORA-20221</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20224
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20222: The QC view (CCD_QC_CRUISE_V) could not be processed successfully:
+ORA-20223: The validation issue record could not be successfully populated:
+ORA-20224: The following application link template placeholders were not found in the QC Object (CCD_QC_CRUISE_V): ABC, DEF
+The parent record was NOT evaluated successfully
+completed test case for ORA-20224</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20225
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20222: The QC view (CCD_QC_CRUISE_V) could not be processed successfully:
+ORA-20223: The validation issue record could not be successfully populated:
+ORA-20225: The following issue description template placeholders were not found in the QC Object (CCD_QC_CRUISE_V): ABC, DEF
+The parent record was NOT evaluated successfully
+completed test case for ORA-20225</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20225
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20222: The QC view (CCD_QC_LEG_OVERLAP_V) could not be processed successfully:
+ORA-20223: The validation issue record could not be successfully populated:
+ORA-20225: The following issue description template placeholders were not found in the QC Object (CCD_QC_LEG_OVERLAP_V): XYZ
+The parent record was NOT evaluated successfully
+completed test case for ORA-20225</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Processing Error Type</t>
+  </si>
+  <si>
+    <t>The data stream code was not found in the database</t>
+  </si>
+  <si>
+    <t>The current data stream has a parent table that does not exist</t>
+  </si>
+  <si>
+    <t>The current data stream has a parent table that has not been enabled in the DVM, this must be resolved before the DVM can execute successfully</t>
+  </si>
+  <si>
+    <t>the data stream codes are for different parent tables so this procedure call is invalid</t>
+  </si>
+  <si>
+    <t>The parent record for the data stream code(s) and parent record PK was not found in the database</t>
+  </si>
+  <si>
+    <t>There are more than one active validation rule set for the data stream code</t>
+  </si>
+  <si>
+    <t>There are no active validation criteria for the data stream code</t>
+  </si>
+  <si>
+    <t>QC view does not exist</t>
+  </si>
+  <si>
+    <t>QC view is invalid</t>
+  </si>
+  <si>
+    <t>One or more application link template placeholders were not found in the QC query</t>
+  </si>
+  <si>
+    <t>One or more issue description template placeholders were not found in the QC query</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Specify an invalid data stream code</t>
+  </si>
+  <si>
+    <t>Update CCD data stream to set DATA_STREAM_PAR_TABLE to a table that does not exist and then revert the record after the procedure is executed</t>
+  </si>
+  <si>
+    <t>Update CCD data stream to set DATA_STREAM_PAR_TABLE to a table that does not have a PTA_ISS_ID NUMBER field and then revert the record after the procedure is executed</t>
+  </si>
+  <si>
+    <t>Create a new data stream record with CCD_CRUISE_LEGS as the parent table and add the PTA_ISS_ID NUMBER field and then revert the record/table after the procedure is executed</t>
+  </si>
+  <si>
+    <t>Specify an invalid P_PK_ID value (-1)</t>
+  </si>
+  <si>
+    <t>This test case adds a new active rule set and then removes the DVM records for the cruise HI1101 and then removes the new active rule set after the procedure is executed.
+**Note: this test case needs to be executed before the -20211 test cases</t>
+  </si>
+  <si>
+    <t>This test case disables all DVM QC objects and then re-enables them after the procedure is executed</t>
+  </si>
+  <si>
+    <t>This test case disables all DVM Issue Types objects and then re-enables them after the procedure is executed</t>
+  </si>
+  <si>
+    <t>This test case updates a DVM QC object record to change the object name to a view that does not exist and then reverts the record value after the procedure is executed</t>
+  </si>
+  <si>
+    <t>This test case alters a field in the parent table to invalidate the dependent views and then reverts the parent table field and re-compiles the dependent views</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20224
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The QC criteria could not be processed for the parent record:
+ORA-20222: The QC view (CCD_QC_LEG_OVERLAP_V) could not be processed successfully:
+ORA-20223: The validation issue record could not be successfully populated:
+ORA-20224: The following application link template placeholders were not found in the QC Object (CCD_QC_LEG_OVERLAP_V): GHI, JKL
+The parent record was NOT evaluated successfully
+completed test case for ORA-20224</t>
+  </si>
+  <si>
+    <t>This test case updates a DVM Issue Type's (VESSEL_OVERLAP_YN) application link template to add placeholders that do not exist and then reverts the record value after the procedure is executed for a DVM issue that is associated with the specified cruise</t>
+  </si>
+  <si>
+    <t>This test case updates a DVM Issue Type's (INV_CRUISE_NAME_YN) application link template to add placeholders that do not exist and then reverts the record value after the procedure is executed for a DVM issue that is associated with the specified cruise</t>
+  </si>
+  <si>
+    <t>This test case updates a DVM Issue Type's (INV_CRUISE_NAME_YN) issue description template to add placeholders that do not exist and then reverts the record value after the procedure is executed for a DVM issue that is associated with the specified cruise</t>
+  </si>
+  <si>
+    <t>This test case updates a DVM Issue Type's (VESSEL_OVERLAP_YN) issue description template to add placeholders that do not exist and then reverts the record value after the procedure is executed for a DVM issue that is associated with the specified cruise</t>
+  </si>
+  <si>
+    <t>CCD_TEST</t>
+  </si>
+  <si>
+    <t>CCD_TEST2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +546,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +556,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -379,6 +623,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,9 +990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A1:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,4 +2806,1961 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-20201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-20202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-20203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-20204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-20206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <v>-20210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>-20211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9">
+        <v>-20211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>-20220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11">
+        <v>-20221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>-20224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>-20224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14">
+        <v>-20225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15">
+        <v>-20225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="30" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,19 @@
     <sheet name="Category 3 DVM Tests" sheetId="2" r:id="rId3"/>
     <sheet name="Category 4 DVM Tests" sheetId="4" r:id="rId4"/>
     <sheet name="Category 5 DVM Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Category 6 DVM Tests" sheetId="6" r:id="rId6"/>
-    <sheet name="Category 6 DVM Rules" sheetId="7" r:id="rId7"/>
+    <sheet name="Category 6 DVM Tests" sheetId="7" r:id="rId6"/>
+    <sheet name="Category 6 DVM Rules" sheetId="6" r:id="rId7"/>
+    <sheet name="Category 6 DVM PTA Rules" sheetId="9" r:id="rId8"/>
+    <sheet name="Category 7 Config Errors - 1" sheetId="8" r:id="rId9"/>
+    <sheet name="Category 7 Config Errors - 2" sheetId="10" r:id="rId10"/>
+    <sheet name="Category 7 Config Errors - 3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -498,6 +502,117 @@
   </si>
   <si>
     <t>CCD_TEST2</t>
+  </si>
+  <si>
+    <t>HA1102_LEG_I, HA1102_LEG_II</t>
+  </si>
+  <si>
+    <t>RULE_SET_ACTIVE_YN</t>
+  </si>
+  <si>
+    <t>RULE_DATA_STREAM_CODE</t>
+  </si>
+  <si>
+    <t>ISS_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CRUISE_NAME</t>
+  </si>
+  <si>
+    <t>LEG_NAME_CD_LIST</t>
+  </si>
+  <si>
+    <t>SE-15-01 Leg 1, SE-15-01 Leg 2</t>
+  </si>
+  <si>
+    <t>Error Source</t>
+  </si>
+  <si>
+    <t>Active Validation Rule Set (DVM_RULE_SETS)</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Set Error (multiple active rule sets) - The Data Stream (CCD_TEST) has more than one (2) active validation rule set associated with it, only one rule set for each data stream should be active at any given time</t>
+  </si>
+  <si>
+    <t>Data Stream (DVM_DATA_STREAMS)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST2) has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that does not have a single numeric primary key defined for it</t>
+  </si>
+  <si>
+    <t>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST2) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Application Link Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Application Link Template that has one or more unmatched placeholders (GHI, JKL), either remove the placeholders or update the QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Issue Description Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Issue Description Template that has one or more unmatched placeholders (XYZ), either remove the placeholders or update the QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>QC View Object (DVM_QC_OBJECTS)</t>
+  </si>
+  <si>
+    <t>View is Invalid - The QC View Object "CCD_QC_LEG_OVERLAP_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>View is Invalid - The QC View Object "CCD_QC_LEG_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>View is Invalid - The QC View Object "CCD_QC_LEG_ALIAS_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>View Does Not Exist - The QC View Object "CCD_QC_CRUISE_TEMP_V" does not exist, either remove the QC object record or update the record with the correct view name</t>
+  </si>
+  <si>
+    <t>Renamed column in CCD_CRUISES to invalidate the dependent views</t>
+  </si>
+  <si>
+    <t>Updated the DVM_QC_OBJECTS table to change the OBJECT_NAME to a view that does not exist</t>
+  </si>
+  <si>
+    <t>removed all data streams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removed all validation rules </t>
+  </si>
+  <si>
+    <t>There are no DVM data streams defined in the database, at least one data stream must be defined to execute the DVM</t>
+  </si>
+  <si>
+    <t>Data Validation Rules (DVM_ISS_TYPES)</t>
+  </si>
+  <si>
+    <t>There are no DVM Validation Rules defined in the database, at least one validation rule must be defined to execute the DVM</t>
   </si>
 </sst>
 </file>
@@ -2808,6 +2923,248 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="74.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="3" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
@@ -4264,44 +4621,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -4311,7 +4633,7 @@
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -4763,4 +5085,2143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="182">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -613,6 +613,30 @@
   </si>
   <si>
     <t>There are no DVM Validation Rules defined in the database, at least one validation rule must be defined to execute the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that does not have a single numeric primary key defined for it</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that does not have a single numeric primary key defined for it</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Does Not Exist) - The Data Stream Code (CCD_TEST3) has a parent table (CCD_ABC) that does not exist</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -7124,10 +7148,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7156,12 +7180,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7169,7 +7193,7 @@
         <v>149</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7177,46 +7201,110 @@
         <v>149</v>
       </c>
       <c r="B5" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B11" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B16" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B17" s="28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B18" s="28" t="s">
         <v>160</v>
       </c>
     </row>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -537,63 +537,24 @@
     <t>Active Validation Rule Set (DVM_RULE_SETS)</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Set Error (multiple active rule sets) - The Data Stream (CCD_TEST) has more than one (2) active validation rule set associated with it, only one rule set for each data stream should be active at any given time</t>
-  </si>
-  <si>
     <t>Data Stream (DVM_DATA_STREAMS)</t>
   </si>
   <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that has not been enabled in the DVM</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST2) has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM</t>
-  </si>
-  <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
     <t>Inactive Validation Rules/QC Objects (DVM_ISS_TYPES/DVM_QC_OBJECTS)</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST2) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
     <t>Issue Type Application Link Template Placeholders (DVM_ISS_TYPES.APP_LINK_TEMPLATE)</t>
   </si>
   <si>
-    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Application Link Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
-    <t>Unmatched Template Placeholders (Application Link) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Application Link Template that has one or more unmatched placeholders (GHI, JKL), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
     <t>Issue Type Issue Description Template Placeholders (DVM_ISS_TYPES.ISS_TYPE_COMMENT_TEMPLATE)</t>
   </si>
   <si>
-    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Invalid Cruise Name" for the "CCD_QC_CRUISE_V" QC view has an Issue Description Template that has one or more unmatched placeholders (ABC, DEF), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
-    <t>Unmatched Template Placeholders (Issue Description) - The Issue Type "Vessel Leg Overlap" for the "CCD_QC_LEG_OVERLAP_V" QC view has an Issue Description Template that has one or more unmatched placeholders (XYZ), either remove the placeholders or update the QC view to include the additional fields</t>
-  </si>
-  <si>
     <t>Error Message</t>
   </si>
   <si>
-    <t>QC View Object (DVM_QC_OBJECTS)</t>
-  </si>
-  <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_OVERLAP_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
-  </si>
-  <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
-  </si>
-  <si>
-    <t>View is Invalid - The QC View Object "CCD_QC_LEG_ALIAS_V" is invalid, the view errors must be resolved before the DVM can be executed</t>
-  </si>
-  <si>
-    <t>View Does Not Exist - The QC View Object "CCD_QC_CRUISE_TEMP_V" does not exist, either remove the QC object record or update the record with the correct view name</t>
-  </si>
-  <si>
     <t>Renamed column in CCD_CRUISES to invalidate the dependent views</t>
   </si>
   <si>
@@ -606,37 +567,76 @@
     <t xml:space="preserve">removed all validation rules </t>
   </si>
   <si>
-    <t>There are no DVM data streams defined in the database, at least one data stream must be defined to execute the DVM</t>
-  </si>
-  <si>
     <t>Data Validation Rules (DVM_ISS_TYPES)</t>
   </si>
   <si>
-    <t>There are no DVM Validation Rules defined in the database, at least one validation rule must be defined to execute the DVM</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM</t>
-  </si>
-  <si>
-    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM</t>
-  </si>
-  <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
     <t>Data Stream Parent Table Error (Primary Key) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that does not have a single numeric primary key defined for it</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
-  </si>
-  <si>
     <t>Data Stream Parent Table Error (Does Not Exist) - The Data Stream Code (CCD_TEST3) has a parent table (CCD_ABC) that does not exist</t>
   </si>
   <si>
-    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) currently has no active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+    <t>Data Stream Validation Rule Set Error (multiple active rule sets) - The Data Stream (CCD_TEST) has more than one (2) active validation rule set associated with it, only one rule set for each data stream should be active at any given time.  Please contact the software developer for troubleshooting support</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST) has a parent table (DVM_ISS_TYP_ASSOC) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST2) has a parent table (CCD_CRUISE_LEGS) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST4) has a parent table (DVM_ISSUES_HIST) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Parent Table Error (Not Enabled) - The Data Stream Code (CCD_TEST5) has a parent table (DVM_ISS_SEVERITY_HIST) that has not been enabled in the DVM (this requires the parent table to have a NUMBER field named PTA_ISS_ID)</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST2) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST3) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST4) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Data Stream Validation Rule Error (no active validation rules) - The Data Stream (CCD_TEST5) has no associated active validation rules, at least one active validation rule must be defined for the given data stream before it can be used to validate data</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Validation Rule "Invalid Cruise Name" has an Application Link Template that contains one or more unmatched placeholders (ABC, DEF) that are not not found in the data QC view (CCD_QC_CRUISE_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Application Link) - The Validation Rule "Vessel Leg Overlap" has an Application Link Template that contains one or more unmatched placeholders (GHI, JKL) that are not not found in the data QC view (CCD_QC_LEG_OVERLAP_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Validation Rule "Invalid Cruise Name" has an Issue Description Template that contains one or more unmatched placeholders (ABC, DEF) that are not not found in the data QC view (CCD_QC_CRUISE_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Unmatched Template Placeholders (Issue Description) - The Validation Rule "Vessel Leg Overlap" has an Issue Description Template that contains one or more unmatched placeholders (XYZ) that are not not found in the data QC view (CCD_QC_LEG_OVERLAP_V), either remove the placeholders from the template or update the data QC view to include the additional fields</t>
+  </si>
+  <si>
+    <t>Data QC View Object (DVM_QC_OBJECTS)</t>
+  </si>
+  <si>
+    <t>Data QC View Does Not Exist - The data QC View "CCD_QC_CRUISE_TEMP_V" does not exist, either remove the data QC object record or update the record with the correct data QC view name</t>
+  </si>
+  <si>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_ALIAS_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_OVERLAP_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>Data QC View is Invalid - The data QC View "CCD_QC_LEG_V" is invalid, the data QC view errors must be resolved before the DVM can be executed</t>
+  </si>
+  <si>
+    <t>There are no Data Streams defined in the DVM, at least one Data Stream must be defined to execute the DVM</t>
+  </si>
+  <si>
+    <t>There are no Validation Rules defined in the DVM, at least one Validation Rule must be defined to execute the DVM</t>
   </si>
 </sst>
 </file>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,54 +2966,54 @@
         <v>146</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>165</v>
+        <v>175</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>166</v>
+        <v>175</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -3156,7 +3156,7 @@
         <v>146</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>106</v>
@@ -3164,24 +3164,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4070,7 +4070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -7150,8 +7150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7166,146 +7166,146 @@
         <v>146</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>149</v>
-      </c>
       <c r="B3" s="28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="201">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -637,6 +637,93 @@
   </si>
   <si>
     <t>There are no Validation Rules defined in the DVM, at least one Validation Rule must be defined to execute the DVM</t>
+  </si>
+  <si>
+    <t>A data QC View indicator field is not included in the View result set fields</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20234
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The data QC validation rules could not be processed for the specified parent record:
+ORA-20234: The validation rule indicator field (MISSING_IND_FIELD_YN) was not found in the data QC view (CCD_QC_LEG_OVERLAP_V):
+ORA-01403: no data found
+The parent record was NOT evaluated successfully
+completed test case for ORA-20234</t>
+  </si>
+  <si>
+    <t>This test case updates a data QC view indicator field to a field name that does not exist in the data QC view</t>
+  </si>
+  <si>
+    <t>Invalid Data Type for Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Invalid Leg Dates) has an indicator field (CRUISE_LEG_ID) that has an invalid data type in the corresponding Data QC View (CCD_QC_LEG_V), the data QC view must be updated to define the indicator field as a VARCHAR, VARCHAR2, or CHAR data type</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Mismatched Cruise Name and Fiscal Year) has an indicator field (CRUISE_ID) that has an invalid data type in the corresponding Data QC View (CCD_QC_CRUISE_V), the data QC view must be updated to define the indicator field as a VARCHAR, VARCHAR2, or CHAR data type</t>
+  </si>
+  <si>
+    <t>Invalid Data Type for Data QC View Indicator Field</t>
+  </si>
+  <si>
+    <t>This test case updates a data QC view indicator field to a field name that has a non-character data type</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20234
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The data QC validation rules could not be processed for the specified parent record:
+ORA-20234: The validation rule (Missing Leg Gear) indicator field (MISSING_IND_FIELD2_YN) was not found in the data QC view (CCD_QC_LEG_V):
+ORA-01403: no data found
+The parent record was NOT evaluated successfully
+completed test case for ORA-20234</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20235
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The data QC validation rules could not be processed for the specified parent record:
+ORA-20235: The validation rule (Mismatched Cruise Name and Fiscal Year) indicator field (CRUISE_ID) has an invalid data type in the data QC view (CCD_QC_CRUISE_V), the DVM requires a character data type for indicator fields:
+ORA-06562: type of out argument must match type of column or bind variable
+The parent record was NOT evaluated successfully
+completed test case for ORA-20235</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20235
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The data QC validation rules could not be processed for the specified parent record:
+ORA-20235: The validation rule (Invalid Leg Dates) indicator field (CRUISE_LEG_ID) has an invalid data type in the data QC view (CCD_QC_LEG_V), the DVM requires a character data type for indicator fields:
+ORA-06562: type of out argument must match type of column or bind variable
+The parent record was NOT evaluated successfully
+completed test case for ORA-20235</t>
+  </si>
+  <si>
+    <t>Data QC View Does not Contain the Parent Table Primary Key Field</t>
+  </si>
+  <si>
+    <t>Data QC View (DVM_QC_OBJECTS)</t>
+  </si>
+  <si>
+    <t>The Data QC View (CCD_QC_CRUISE_V) does not contain the associated parent table's (CCD_CRUISE_LEGS) primary key field (CRUISE_LEG_ID), update the Data QC View to add the parent table's primary key field</t>
+  </si>
+  <si>
+    <t>Missing Data QC View Indicator Field (DVM_ISS_TYPES.IND_FIELD_NAME)</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Cruise Leg Overlap) has an indicator field (MISSING_IND_FIELD_YN) that does not exist in the corresponding Data QC View (CCD_QC_LEG_OVERLAP_V), the data QC view must be updated to define the indicator field or the indicator field name must be changed to match a data QC view field</t>
+  </si>
+  <si>
+    <t>The Validation Rule (Missing Leg Gear) has an indicator field (MISSING_IND_FIELD2_YN) that does not exist in the corresponding Data QC View (CCD_QC_LEG_V), the data QC view must be updated to define the indicator field or the indicator field name must be changed to match a data QC view field</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20236
+DVM_PKG error: The parent record could not be validated successfully:
+ORA-20219: The data QC validation rules could not be processed for the specified parent record:
+ORA-20236: The Data QC View (CCD_QC_LEG_ALIAS_V) does not contain the primary key field (CRUISE_ID) of the parent table (CCD_CRUISES), the DVM requires each Data QC View to include the parent table primary key:
+ORA-00904: "CRUISE_ID": invalid identifier
+The parent record was NOT evaluated successfully
+completed test case for ORA-20236</t>
+  </si>
+  <si>
+    <t>This test case updates a Data QC View to remove the parent table's primary key field (CRUISE_ID)</t>
   </si>
 </sst>
 </file>
@@ -3141,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -4068,10 +4155,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,6 +4413,76 @@
       </c>
       <c r="E15">
         <v>-20225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-20234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-20234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-20235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-20235</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="2" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-20236</v>
       </c>
     </row>
   </sheetData>
@@ -7148,10 +7305,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,35 +7338,35 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
+      <c r="A3" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>148</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7217,15 +7374,15 @@
         <v>148</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>148</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7233,7 +7390,7 @@
         <v>148</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7241,15 +7398,15 @@
         <v>148</v>
       </c>
       <c r="B10" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7257,7 +7414,7 @@
         <v>150</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7265,7 +7422,7 @@
         <v>150</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7273,39 +7430,79 @@
         <v>150</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B20" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
+++ b/docs/test cases/DVM_PKG/Centralized Cruise Database CCD DVM Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="15870" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="14100" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Category 1 DVM Tests" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Category 7 Config Errors - 1" sheetId="8" r:id="rId9"/>
     <sheet name="Category 7 Config Errors - 2" sheetId="10" r:id="rId10"/>
     <sheet name="Category 7 Config Errors - 3" sheetId="11" r:id="rId11"/>
+    <sheet name="Category 8 DVM Tests" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="269">
   <si>
     <t>Extra Notes</t>
   </si>
@@ -724,6 +725,255 @@
   </si>
   <si>
     <t>This test case updates a Data QC View to remove the parent table's primary key field (CRUISE_ID)</t>
+  </si>
+  <si>
+    <t>SE-21-03</t>
+  </si>
+  <si>
+    <t>HI-21-06</t>
+  </si>
+  <si>
+    <t>HI-21-07 Leg 1</t>
+  </si>
+  <si>
+    <t>HI-21-07</t>
+  </si>
+  <si>
+    <t>SE-20-05</t>
+  </si>
+  <si>
+    <t>SE-20-05 Leg 1</t>
+  </si>
+  <si>
+    <t>HI-20-08 Leg 2</t>
+  </si>
+  <si>
+    <t>HI-20-09 Leg 1</t>
+  </si>
+  <si>
+    <t>HI-20-08</t>
+  </si>
+  <si>
+    <t>HI-20-09</t>
+  </si>
+  <si>
+    <t>SE-21-07</t>
+  </si>
+  <si>
+    <t>SE-21-09 Leg 1</t>
+  </si>
+  <si>
+    <t>SE-21-09 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-21-09</t>
+  </si>
+  <si>
+    <t>HI-19-02</t>
+  </si>
+  <si>
+    <t>HI-19-02 Leg 1, HI-19-02 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-19-05 Leg 1</t>
+  </si>
+  <si>
+    <t>SE-19-04 Leg 1</t>
+  </si>
+  <si>
+    <t>SE-19-04 Leg 2</t>
+  </si>
+  <si>
+    <t>SE-19-05</t>
+  </si>
+  <si>
+    <t>SE-19-04</t>
+  </si>
+  <si>
+    <t>SE-22-02 Leg 1</t>
+  </si>
+  <si>
+    <t>SE-22-01</t>
+  </si>
+  <si>
+    <t>SE-22-02</t>
+  </si>
+  <si>
+    <t>SE-22-01 Leg 2</t>
+  </si>
+  <si>
+    <t>Insert Cruise Leg Case 1 (evaluate one record  - HA1007 (copy) - that has an overlap with another cruise), the overlapping cruise is automatically evaluated using the CCD_DVM_PKG.EXEC_DVM_CRUISE_OVERLAP_SP procedure</t>
+  </si>
+  <si>
+    <t>Insert Cruise Leg Case 1 (evaluate one record  - HI1101 - that has an overlap with another cruise), the overlapping cruise is automatically evaluated using the CCD_DVM_PKG.EXEC_DVM_CRUISE_OVERLAP_SP procedure</t>
+  </si>
+  <si>
+    <t>Insert Cruise Leg Case 2 (evaluate one record  - SE-15-01 - that has an overlap with another leg in the same cruise), the overlapping cruise is not automatically evaluated because it's the same cruise</t>
+  </si>
+  <si>
+    <t>Update Cruise Leg Case 2 (non-overlap to overlap) Update the cruise to resolve the vessel overlap error, run the PL/SQL to update the cruise leg and re-evaluate the new overlapping cruise.  Update SE-19-05 Leg 1 to change overlap from none to SE-19-04 Leg 1 and SE-19-04 Leg 2</t>
+  </si>
+  <si>
+    <t>Update Cruise Leg Case 2 (non-overlap to overlap) Update the cruise to resolve the vessel overlap error, run the PL/SQL to update the cruise leg and re-evaluate the new overlapping cruise.  Update SE-19-05 Leg 1 to change overlap from none to SE-19-04 Leg 1 and SE-19-04 Leg 2 (this update also caused a warning for cruise leg length)</t>
+  </si>
+  <si>
+    <t>Update Cruise Leg Case 4 (overlap to same overlap) Update the cruise to maintain the vessel overlap error, run the PL/SQL to update the cruise leg and re-evaluate the existing overlapping records.  Update SE-22-02 Leg 1 to maintain same overlap with SE-22-01 Leg 2</t>
+  </si>
+  <si>
+    <t>Delete Cruise Leg Case 3 (One cruise overlaps with two cruises, one overlap is resolved when removing an overlapping cruise leg) Run the CCD_CRUISE_PKG.DELETE_LEG_OVERLAP_SP procedure.  Delete HI-21-08 Leg 1 removing the HI-21-08 Leg 1 overlap errors from HI-21-07 Leg 2</t>
+  </si>
+  <si>
+    <t>Delete Cruise Leg Case 1 (Overlap to no overlap) Vessel Leg Overlaps DVM records removed after using CCD_CRUISE_PKG.DELETE_LEG_OVERLAP_SP procedure is executed on SE-20-05 Leg 1 to remove the overlap errors on SE-20-04</t>
+  </si>
+  <si>
+    <t>Delete Cruise Leg Case 2 (Overlap with two cruises to no overlap) Vessel Leg Overlaps DVM records removed after using CCD_CRUISE_PKG.DELETE_LEG_OVERLAP_SP procedure is executed on SE-21-03 to remove the overlap errors on SE-21-01 and SE-21-04</t>
+  </si>
+  <si>
+    <t>Delete Cruise Leg Case 4 (Three cruises overlap, remove one overlapping cruise leg) Run the CCD_CRUISE_PKG.DELETE_LEG_OVERLAP_SP.  Delete HI-20-10 Leg 1 resolves overlapping errors with HI-20-10 Leg 1 for HI-20-08 Leg 1, HI-20-08 Leg 2, HI-20-09 Leg 1</t>
+  </si>
+  <si>
+    <t>Update Cruise Leg Case 1 (Overlap to different Overlap) Update the cruise to introduce a different vessel overlap error, run the custom PL/SQL to update the cruise leg and re-evaluate all overlap with the previous and modified cruise leg values.  Update SE-21-07 to change overlap from SE-21-06, SE-21-08 to SE-21-09</t>
+  </si>
+  <si>
+    <t>Update Cruise Leg Case 3 (overlap to no overlap) Update the cruise to resolve the vessel overlap error, run the PL/SQL to update the cruise leg and re-evaluate the previous overlapping cruise.  Update HI-19-02 Leg 1 to change overlap from HI-19-01 Leg 2 to none</t>
+  </si>
+  <si>
+    <t>Cruise DVM - Processing Error</t>
+  </si>
+  <si>
+    <t>Cruise DVM Overlap - Processing Error</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>ABC-123</t>
+  </si>
+  <si>
+    <t>Cruise ID/Name</t>
+  </si>
+  <si>
+    <t>Cruise DVM - Required Parameters are Blank</t>
+  </si>
+  <si>
+    <t>Delete Leg Overlap - Required Parameters are Blank</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20501
+The cruise leg was NOT deleted or the associated cruise (and any previously overlapping cruises) was NOT evaluated using the DVM successfully
+ORA-20501: The Cruise Leg ID parameter was not specified
+completed test case for ORA-20501</t>
+  </si>
+  <si>
+    <t>Blank Cruise ID parameter</t>
+  </si>
+  <si>
+    <t>Invalid Cruise ID parameter</t>
+  </si>
+  <si>
+    <t>Blank Cruise Name parameter</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20502
+The cruise leg was NOT deleted or the associated cruise (and any previously overlapping cruises) was NOT evaluated using the DVM successfully
+ORA-20502: The cruise leg record (CRUISE_LEG_ID: -1) was not found in the database
+completed test case for ORA-20502</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20501
+The cruise leg was NOT deleted or the associated cruise (and any previously overlapping cruises) was NOT evaluated using the DVM successfully
+ORA-20501: The Leg Name parameter was not specified
+completed test case for ORA-20501</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20502
+The cruise leg was NOT deleted or the associated cruise (and any previously overlapping cruises) was NOT evaluated using the DVM successfully
+ORA-20502: A cruise leg record with a name "AB-12-21 Leg 1" could not be found in the database
+completed test case for ORA-20502</t>
+  </si>
+  <si>
+    <t>Invalid Cruise Name parameter</t>
+  </si>
+  <si>
+    <t>AB-12-21 Leg 1</t>
+  </si>
+  <si>
+    <t>Delete Leg Overlap - Cruise Leg Child Record Exists</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20505
+The cruise leg was NOT deleted or the associated cruise (and any previously overlapping cruises) was NOT evaluated using the DVM successfully
+ORA-20505: One or more child records exist for the cruise leg record, you must delete them before you can delete the cruise leg:
+ORA-02292: integrity constraint (CEN_CRUISE.CCD_LEG_GEAR_FK1) violated - child record found
+completed test case for ORA-20505</t>
+  </si>
+  <si>
+    <t>HI1001_LEGIII</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20507
+The cruise record was NOT evaluated successfully
+ORA-20507: The Cruise ID parameter was not specified
+completed test case for ORA-20507</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20508
+The cruise record was NOT evaluated successfully
+ORA-20508: The Cruise could not be successfully processed by the DVM:
+ORA-20237: The parent record could not be validated successfully:
+ORA-20206: The parent record (CCD_CRUISES) for the data stream code(s) (CCD) and parent record PK (-1) was not found in the database
+completed test case for ORA-20508</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20507
+The cruise record was NOT evaluated successfully
+ORA-20507: The Cruise Name parameter was not specified
+completed test case for ORA-20507</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20509
+The cruise record was NOT evaluated successfully
+ORA-20509: A cruise record with a cruise name "ABC-123" could not be found in the database
+completed test case for ORA-20509</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20510
+The cruise record (and any overlapping records) were NOT evaluated successfully
+ORA-20510: The Cruise ID parameter was not specified
+completed test case for ORA-20510</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20511
+The cruise record (and any overlapping records) were NOT evaluated successfully
+ORA-20511: The DVM procedure could not be successfully processed for the cruise(s):
+ORA-20508: The Cruise could not be successfully processed by the DVM:
+ORA-20237: The parent record could not be validated successfully:
+ORA-20206: The parent record (CCD_CRUISES) for the data stream code(s) (CCD) and parent record PK (-1) was not found in the database
+completed test case for ORA-20511</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20510
+The cruise record (and any overlapping records) were NOT evaluated successfully
+ORA-20510: The Cruise Name parameter was not specified
+completed test case for ORA-20510</t>
+  </si>
+  <si>
+    <t>executing test case for ORA-20512
+The cruise record (and any overlapping records) were NOT evaluated successfully
+ORA-20512: A cruise record with a cruise name "ABC-123" could not be found in the database
+completed test case for ORA-20512</t>
+  </si>
+  <si>
+    <t>Cruise DVM Overlap - Required Parameters are Blank</t>
+  </si>
+  <si>
+    <t>Cruise DVM - Invalid Cruise Specified</t>
+  </si>
+  <si>
+    <t>Cruise DVM Overlap - Invalid Cruise Specified</t>
+  </si>
+  <si>
+    <t>Delete Leg Overlap - Invalid Cruise Leg Specified</t>
   </si>
 </sst>
 </file>
@@ -811,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -909,6 +1159,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3276,6 +3530,265 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-20501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3">
+        <v>-20502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-20501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5">
+        <v>-20502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>-20505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7">
+        <v>-20507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8">
+        <v>-20508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9">
+        <v>-20507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10">
+        <v>-20509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11">
+        <v>-20510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E12">
+        <v>-20511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13">
+        <v>-20510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14">
+        <v>-20512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
@@ -4157,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,15 +5006,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="27.42578125" customWidth="1"/>
+    <col min="1" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4547,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>62</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4604,7 +5118,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="30" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -4661,7 +5175,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4732,7 +5246,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4761,7 +5275,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4778,7 +5292,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -4795,8 +5309,315 @@
         <v>29</v>
       </c>
     </row>
+    <row r="21" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
